--- a/3_Hospital/neo4j/NEO4J-patient.xlsx
+++ b/3_Hospital/neo4j/NEO4J-patient.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITA\2019\CE-229\ts3\US123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITA\2019\CE-229\ts3\git\ipbl2019\3_Hospital\neo4j\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB23187-EF2D-403D-90F1-36457A59F0E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF686F-E3B3-4237-AC25-37D936561873}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{9B7C57A3-7310-42DE-B09E-22C6E3400FCC}"/>
+    <workbookView xWindow="23070" yWindow="1950" windowWidth="15375" windowHeight="8085" xr2:uid="{9B7C57A3-7310-42DE-B09E-22C6E3400FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="3" r:id="rId1"/>
@@ -159,10 +159,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -480,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8166F18-5A17-4CE9-951A-875A65247BAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +499,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2">
@@ -506,7 +507,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
@@ -522,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCCE032-2532-48AC-8212-BBA808E510A4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +552,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
@@ -565,7 +566,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
